--- a/Running projects/Saifee Hospital Cardiac wing/SAIFEE Building 8th floor to 11 floor.xlsx
+++ b/Running projects/Saifee Hospital Cardiac wing/SAIFEE Building 8th floor to 11 floor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Saifee Hospital Cardiac wing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1F3DC-0FF8-4EED-9D66-054A4ADC4BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5B372-BAB2-49BE-95F0-FC045ED43B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="125">
   <si>
     <t>SH-2021-22</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>TATAL COST PART -D (RS.)</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL PART-A, B,C &amp; D. (RS)</t>
   </si>
   <si>
     <t>The quoted cost should include all overheads, profits, income tax and all other Taxes which are applicable, import duty (if any), insurance, packing, unpacking, transportation charges etc.</t>
@@ -630,6 +627,15 @@
       </rPr>
       <t>(250GPM &amp; 10BAR)</t>
     </r>
+  </si>
+  <si>
+    <t>Special Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET TOTAL </t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -971,6 +977,69 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -980,68 +1049,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1348,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1368,10 +1383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="1"/>
@@ -1383,57 +1398,57 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="A3" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="46" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1451,12 +1466,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1468,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="11">
         <v>0</v>
@@ -1532,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
@@ -1652,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="11">
         <v>0</v>
@@ -1684,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1772,7 +1787,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="11">
         <v>0</v>
@@ -1804,7 +1819,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1888,23 +1903,23 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="7"/>
@@ -1918,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="11">
         <v>0</v>
@@ -1982,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="11">
         <v>2</v>
@@ -2454,7 +2469,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -3094,7 +3109,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -3390,7 +3405,7 @@
         <v>21</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
@@ -3694,7 +3709,7 @@
         <v>26</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="11">
         <v>0</v>
@@ -3754,24 +3769,24 @@
       </c>
     </row>
     <row r="83" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="30"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="14"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -3848,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="11">
         <v>1</v>
@@ -3898,7 +3913,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
@@ -4218,24 +4233,24 @@
       </c>
     </row>
     <row r="100" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="33"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="32"/>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
     </row>
     <row r="101" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B101" s="34"/>
-      <c r="C101" s="30"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="29"/>
       <c r="D101" s="14"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -4402,160 +4417,161 @@
       </c>
     </row>
     <row r="107" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="33"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="52"/>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
     </row>
     <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="33"/>
+      <c r="A108" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="52"/>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
-      <c r="I108" s="49">
+      <c r="I108" s="26">
         <f>SUM(I7:I106)</f>
         <v>23424073</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="28" t="s">
+    <row r="109" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="26">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="26">
+        <f>I108-I109</f>
+        <v>22424073</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+    </row>
+    <row r="112" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="21">
+        <v>1</v>
+      </c>
+      <c r="B112" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-    </row>
-    <row r="110" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="21">
-        <v>1</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-    </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="21">
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+    </row>
+    <row r="113" spans="1:9" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="21">
         <v>2</v>
       </c>
-      <c r="B111" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="23"/>
-    </row>
-    <row r="112" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="21">
-        <v>3</v>
-      </c>
-      <c r="B112" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-    </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="21">
-        <v>4</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
+      <c r="B113" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="23"/>
     </row>
     <row r="114" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
-        <v>5</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
       <c r="H114" s="23"/>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="21">
-        <v>6</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
     </row>
     <row r="116" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
-        <v>7</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="23"/>
       <c r="F116" s="23"/>
       <c r="G116" s="23"/>
       <c r="H116" s="23"/>
       <c r="I116" s="23"/>
     </row>
-    <row r="117" spans="1:9" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
-        <v>8</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" s="26"/>
+        <v>6</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="24"/>
       <c r="D117" s="24"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
@@ -4563,38 +4579,86 @@
       <c r="H117" s="23"/>
       <c r="I117" s="23"/>
     </row>
-    <row r="118" spans="1:9" s="8" customFormat="1" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
-        <v>9</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
+        <v>7</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
       <c r="H118" s="23"/>
       <c r="I118" s="23"/>
     </row>
-    <row r="119" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
+        <v>8</v>
+      </c>
+      <c r="B119" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" s="47"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+    </row>
+    <row r="120" spans="1:9" s="8" customFormat="1" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="21">
+        <v>9</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" s="47"/>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+    </row>
+    <row r="121" spans="1:9" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="21">
         <v>10</v>
       </c>
-      <c r="B119" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="24"/>
+      <c r="B121" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="B112:I112"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A1:B1"/>
@@ -4605,22 +4669,6 @@
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="B111:H111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:I113"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
